--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selene/Desktop/Web_developer/P4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE0B14-93D6-3146-A0A6-2D7159B9B5B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3808303-75CB-104B-B646-12106F22A370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="720" yWindow="460" windowWidth="51200" windowHeight="26660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>Catégorie</t>
   </si>
@@ -99,9 +99,6 @@
     <t>decrire preceisement l'image</t>
   </si>
   <si>
-    <t>changer le nom de src pour chaque image.</t>
-  </si>
-  <si>
     <t>https://checklists.opquast.com/fr/assurance-qualite-web/chaque-graphique-est-accompagne-de-ses-donnees-numeriques</t>
   </si>
   <si>
@@ -385,6 +382,30 @@
   </si>
   <si>
     <t>remplacer par nom contact</t>
+  </si>
+  <si>
+    <t>probleme couleurs contrate</t>
+  </si>
+  <si>
+    <t>check couleurs avec analayseur</t>
+  </si>
+  <si>
+    <t>changer design couleurs</t>
+  </si>
+  <si>
+    <t>changer le nom de ALT pour chaque image.</t>
+  </si>
+  <si>
+    <t>nouveau H1 descence des H ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppression toggle navigation </t>
+  </si>
+  <si>
+    <t>aucune couleurs remplacer $</t>
+  </si>
+  <si>
+    <t>ok W3C validator no error"html"</t>
   </si>
 </sst>
 </file>
@@ -509,22 +530,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -538,12 +547,20 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="285" zoomScaleNormal="285" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="285" zoomScaleNormal="285" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,14 +912,14 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>116</v>
+      <c r="D4" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,7 +929,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
@@ -936,10 +953,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -955,8 +972,8 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>119</v>
+      <c r="E8" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -966,17 +983,17 @@
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,19 +1001,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -1024,19 +1041,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,19 +1061,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -1064,30 +1081,30 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="10" t="s">
-        <v>53</v>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,19 +1112,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1115,27 +1132,27 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="10" t="s">
+      <c r="F18" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,28 +1160,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1172,27 +1189,27 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
         <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -1200,66 +1217,66 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="10" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
         <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1267,16 +1284,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" t="s">
         <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,19 +1301,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,16 +1321,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,16 +1338,19 @@
         <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
         <v>108</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,32 +1358,55 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E33" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
